--- a/Test Summary Report.xlsx
+++ b/Test Summary Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugosw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugosw\Documents\GitHub\HackathonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD59DC4D-7B8F-4B22-BDD9-03FDDEC6FDA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9239367A-979F-4AA3-83AF-3A77FFBC52BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,2046 +816,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Status Split Up</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24429155730533678"/>
-          <c:y val="4.6296296296296294E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:explosion val="3"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Overview'!$G$3:$G$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Total Planned Test Cases</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Total Executed Test Cases</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Total Passed Test Cases</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Total Failed Test Cases</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Total Execution Coverage</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Pass Percentage</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fail Percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Overview'!$H$3:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0%">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0%">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002E-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-4517-4B67-BC78-ABF5B1CB19E0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Execution Status Report'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Module 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Execution Status Report'!$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-4517-4B67-BC78-ABF5B1CB19E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.62478608923884515"/>
-          <c:y val="0.29826188393117525"/>
-          <c:w val="0.37521391076115485"/>
-          <c:h val="0.54687882764654416"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -3150,7 +1110,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3436,7 +1396,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3868,7 +1828,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3964,6 +1924,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ECF1-48FB-B659-C8E9096A1E6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3979,6 +1944,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ECF1-48FB-B659-C8E9096A1E6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3994,6 +1964,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ECF1-48FB-B659-C8E9096A1E6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4330,46 +2305,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -4972,607 +2907,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6075,7 +3409,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6624,7 +3958,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7127,7 +4461,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7686,42 +5020,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -7750,7 +5048,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7786,7 +5084,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7822,7 +5120,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7858,7 +5156,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
